--- a/data/xlsx/草部.xlsx
+++ b/data/xlsx/草部.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="992">
   <si>
     <t>part</t>
   </si>
@@ -2972,10 +2972,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>甘。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>苦、温。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2988,11 +2984,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毒。</t>
+    <t>治水（一种心疾）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>治水（一种心疾）。</t>
+    <t>甘，平，无毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（藤中水）甘，平，无毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦，温，无毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛，温，无毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛，温，小毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘，微温，有小毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘，性平，无毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦，平，小毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸，有毒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3342,8 +3370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="F139" sqref="F139"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="D268" sqref="D268:D278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7802,7 +7830,7 @@
         <v>957</v>
       </c>
       <c r="D268" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="E268" t="s">
         <v>956</v>
@@ -7815,6 +7843,9 @@
       <c r="B269" t="s">
         <v>959</v>
       </c>
+      <c r="D269" t="s">
+        <v>984</v>
+      </c>
       <c r="E269" t="s">
         <v>960</v>
       </c>
@@ -7826,6 +7857,9 @@
       <c r="B270" t="s">
         <v>961</v>
       </c>
+      <c r="D270" t="s">
+        <v>985</v>
+      </c>
       <c r="E270" t="s">
         <v>962</v>
       </c>
@@ -7848,6 +7882,9 @@
       <c r="B272" t="s">
         <v>965</v>
       </c>
+      <c r="D272" t="s">
+        <v>986</v>
+      </c>
       <c r="E272" t="s">
         <v>966</v>
       </c>
@@ -7859,6 +7896,9 @@
       <c r="B273" t="s">
         <v>967</v>
       </c>
+      <c r="D273" t="s">
+        <v>987</v>
+      </c>
       <c r="E273" t="s">
         <v>968</v>
       </c>
@@ -7882,10 +7922,10 @@
         <v>971</v>
       </c>
       <c r="D275" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="E275" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.15">
@@ -7895,6 +7935,9 @@
       <c r="B276" t="s">
         <v>972</v>
       </c>
+      <c r="D276" t="s">
+        <v>989</v>
+      </c>
       <c r="E276" t="s">
         <v>973</v>
       </c>
@@ -7907,10 +7950,10 @@
         <v>974</v>
       </c>
       <c r="D277" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="E277" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.15">
@@ -7924,10 +7967,10 @@
         <v>978</v>
       </c>
       <c r="D278" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="E278" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.15">
@@ -7938,7 +7981,7 @@
         <v>977</v>
       </c>
       <c r="D279" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E279" t="s">
         <v>976</v>
